--- a/STEP3AMerge04.xlsx
+++ b/STEP3AMerge04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="291">
   <si>
     <t>id_x</t>
   </si>
@@ -142,18 +142,6 @@
     <t>Online Realtime Transfer to Chase-Trulo-x8616  8616 transaction#: 19674945408 reference#: 9674945408RX 01/25</t>
   </si>
   <si>
-    <t>Online Transfer 16158956379 to WF-Exp-x2862 ######2862 transaction #: 16158956379 12/30</t>
-  </si>
-  <si>
-    <t>Zelle payment to 00-Trulo Property Management 16158943610</t>
-  </si>
-  <si>
-    <t>Online Transfer to CHK ...9670 transaction#: 16158940325 12/30</t>
-  </si>
-  <si>
-    <t>Online Transfer from CHK ...5909 transaction#: 16158658810</t>
-  </si>
-  <si>
     <t>ORIG CO NAME:JPMORGAN CHASE         ORIG ID:1000008113 DESC DATE:050124 CO ENTRY DESCR:CHASE ACH SEC:PPD    TRACE#:021000027939867 EED:240501   IND ID:                             IND NAME:MEADOW VIEW HOMES LLC TRN: 1227939867TC</t>
   </si>
   <si>
@@ -181,18 +169,6 @@
     <t>ORIG CO NAME:JPMORGAN CHASE         ORIG ID:9008102401 DESC DATE:010124 CO ENTRY DESCR:CHASE ACH SEC:PPD    TRACE#:021000024756877 EED:240102   IND ID:                             IND NAME:MEADOW VIEW HOMES LLC TRN: 0024756877TC</t>
   </si>
   <si>
-    <t>Online Transfer 16158646942 to WF-Buffer-x3334 ######3334 transaction #: 16158646942 12/30</t>
-  </si>
-  <si>
-    <t>Zelle payment from ONEPLUS REALTY GROUP LLC 16159306297</t>
-  </si>
-  <si>
-    <t>Zelle payment to Adelina Baeza JPM999eht5q1</t>
-  </si>
-  <si>
-    <t>Zelle payment to Adelina Baeza JPM999dw3pp8</t>
-  </si>
-  <si>
     <t>ORIG CO NAME:PENNYMAC               ORIG ID:1262049351 DESC DATE:May 24 CO ENTRY DESCR:CASH      SEC:WEB    TRACE#:021000025438667 EED:240501   IND ID:8028351082-0053              IND NAME:8604 Wagon TRN: 1225438667TC</t>
   </si>
   <si>
@@ -223,18 +199,6 @@
     <t>Zelle payment to Trulo Property Management LLC 19155507266</t>
   </si>
   <si>
-    <t>Online Realtime Transfer to WF-Buffer-x3334  3334 transaction#: 16159076173 reference#: 9159076173RX 12/30</t>
-  </si>
-  <si>
-    <t>Zelle payment to 00-Neeraj Gupta JPM999k8oh60</t>
-  </si>
-  <si>
-    <t>Zelle payment from PAGODA HOMES LLC 16168561728</t>
-  </si>
-  <si>
-    <t>Zelle payment to Trulo Property Management LLC 15184053283</t>
-  </si>
-  <si>
     <t>Online Transfer from CHK ...6571 transaction#: 16158940325</t>
   </si>
   <si>
@@ -262,12 +226,6 @@
     <t>Zelle payment to Trulo Property Management LLC 19155507268</t>
   </si>
   <si>
-    <t>Zelle payment to 00-Neeraj Gupta JPM999k8oi8t</t>
-  </si>
-  <si>
-    <t>Zelle payment from PAGODA HOMES LLC 16168577464</t>
-  </si>
-  <si>
     <t>ORIG CO NAME:NEWREZ-SHELLPOIN       ORIG ID:6371542226 DESC DATE:240430 CO ENTRY DESCR:ACH PMT   SEC:PPD    TRACE#:028000087735184 EED:240501   IND ID:                             IND NAME:JADHAV VIVEK TRN: 1227735184TC</t>
   </si>
   <si>
@@ -356,39 +314,6 @@
   </si>
   <si>
     <t>ORIG CO NAME:NEWREZ-SHELLPOIN       ORIG ID:6371542226 DESC DATE:231231 CO ENTRY DESCR:ACH PMT   SEC:PPD    TRACE#:028000084290779 EED:240102   IND ID:                             IND NAME:JADHAV VIVEK TRN: 0024290779TC</t>
-  </si>
-  <si>
-    <t>ORIG CO NAME:TARA ENERGY            ORIG ID:0000267208 DESC DATE:231103 CO ENTRY DESCR:UTILITIES SEC:WEB    TRACE#:021000021096117 EED:231103   IND ID:7937324                      IND NAME:NEERAJ *GUPTA                                                                                                866-438-8272 TRN: 3071096117TC</t>
-  </si>
-  <si>
-    <t>Zelle payment to MEADOW VIEW HOMES LLC 16168577464</t>
-  </si>
-  <si>
-    <t>ORIG CO NAME:TXU ENERGY             ORIG ID:1001020329 DESC DATE:       CO ENTRY DESCR:TXU_ACH   SEC:PPD    TRACE#:021000024213787 EED:221230   IND ID:                             IND NAME:NEERAJ GUPTA TRN: 3644213787TC</t>
-  </si>
-  <si>
-    <t>Online Transfer 16158808968 to WF-Exp-x2862 ######2862 transaction #: 16158808968 12/30</t>
-  </si>
-  <si>
-    <t>Zelle payment to 00-Trulo Property Management 16158728796</t>
-  </si>
-  <si>
-    <t>Online Transfer to CHK ...6571 transaction#: 16158658810 12/30</t>
-  </si>
-  <si>
-    <t>ORIG CO NAME:ASSURED RENT CHK       ORIG ID:9599817002 DESC DATE:SD1700 CO ENTRY DESCR:PAYMENTS  SEC:CCD    TRACE#:321081667095303 EED:221230   IND ID:22112867                     IND NAME:PAGODA HOMES LLC           NTE*COX, SHELLIE - 7417 CANOGA CIRC LE #33 - JANUARY 2023 RENT\ TRN: 3647095303TC</t>
-  </si>
-  <si>
-    <t>REAL TIME TRANSFER RECD FROM ABA/021000021 FROM: TRULO PROPERTY MANAGEMENT LLC REF: MMS-16163893740 INFO:  IID: 20221230021000021P1BRJPM00610073510 RECD: 16:21:16 TRN: 9163893740RX</t>
-  </si>
-  <si>
-    <t>Zelle payment to Adelina Baeza JPM999e78q9n</t>
-  </si>
-  <si>
-    <t>Zelle payment to Adelina Baeza JPM999dtxs6e</t>
-  </si>
-  <si>
-    <t>Zelle payment to Adelina Baeza JPM999c310mf</t>
   </si>
   <si>
     <t>OnePlus Realty G SIGONFILE 050324 99P8G2 Midway Inn LLC</t>
@@ -1323,7 +1248,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O300"/>
+  <dimension ref="A1:O275"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1463,81 +1388,81 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7">
-        <v>1255</v>
+        <v>1314</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2">
-        <v>44925</v>
+        <v>45413</v>
       </c>
       <c r="D7" t="s">
         <v>42</v>
       </c>
       <c r="E7">
-        <v>-6000</v>
+        <v>-1383.06</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8">
-        <v>1256</v>
+        <v>1315</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2">
-        <v>44925</v>
+        <v>45394</v>
       </c>
       <c r="D8" t="s">
         <v>43</v>
       </c>
       <c r="E8">
-        <v>-2538</v>
+        <v>1679.58</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9">
-        <v>1257</v>
+        <v>1316</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" s="2">
-        <v>44925</v>
+        <v>45383</v>
       </c>
       <c r="D9" t="s">
         <v>44</v>
       </c>
       <c r="E9">
-        <v>-2500</v>
+        <v>-1383.06</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10">
-        <v>1258</v>
+        <v>1317</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" s="2">
-        <v>44925</v>
+        <v>45383</v>
       </c>
       <c r="D10" t="s">
         <v>45</v>
       </c>
       <c r="E10">
-        <v>3200</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11">
-        <v>1314</v>
+        <v>1318</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="2">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="D11" t="s">
         <v>46</v>
@@ -1548,30 +1473,30 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12">
-        <v>1315</v>
+        <v>1319</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="2">
-        <v>45394</v>
+        <v>45335</v>
       </c>
       <c r="D12" t="s">
         <v>47</v>
       </c>
       <c r="E12">
-        <v>1679.58</v>
+        <v>2398.14</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13">
-        <v>1316</v>
+        <v>1320</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="2">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="D13" t="s">
         <v>48</v>
@@ -1582,30 +1507,30 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14">
-        <v>1317</v>
+        <v>1321</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="2">
-        <v>45383</v>
+        <v>45308</v>
       </c>
       <c r="D14" t="s">
         <v>49</v>
       </c>
       <c r="E14">
-        <v>2066</v>
+        <v>1873.04</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="2">
-        <v>45352</v>
+        <v>45293</v>
       </c>
       <c r="D15" t="s">
         <v>50</v>
@@ -1616,149 +1541,149 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16">
-        <v>1319</v>
+        <v>1434</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" s="2">
-        <v>45335</v>
+        <v>45413</v>
       </c>
       <c r="D16" t="s">
         <v>51</v>
       </c>
       <c r="E16">
-        <v>2398.14</v>
+        <v>-843.79</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>1320</v>
+        <v>1435</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C17" s="2">
-        <v>45323</v>
+        <v>45394</v>
       </c>
       <c r="D17" t="s">
         <v>52</v>
       </c>
       <c r="E17">
-        <v>-1383.06</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>1321</v>
+        <v>1436</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18" s="2">
-        <v>45308</v>
+        <v>45383</v>
       </c>
       <c r="D18" t="s">
         <v>53</v>
       </c>
       <c r="E18">
-        <v>1873.04</v>
+        <v>-843.79</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>1322</v>
+        <v>1437</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C19" s="2">
-        <v>45293</v>
+        <v>45383</v>
       </c>
       <c r="D19" t="s">
         <v>54</v>
       </c>
       <c r="E19">
-        <v>-1383.06</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>1391</v>
+        <v>1438</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C20" s="2">
-        <v>44925</v>
+        <v>45352</v>
       </c>
       <c r="D20" t="s">
         <v>55</v>
       </c>
       <c r="E20">
-        <v>-7000</v>
+        <v>-843.79</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>1392</v>
+        <v>1439</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C21" s="2">
-        <v>44925</v>
+        <v>45335</v>
       </c>
       <c r="D21" t="s">
         <v>56</v>
       </c>
       <c r="E21">
-        <v>3930</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>1413</v>
+        <v>1440</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C22" s="2">
-        <v>44771</v>
+        <v>45323</v>
       </c>
       <c r="D22" t="s">
         <v>57</v>
       </c>
       <c r="E22">
-        <v>-150</v>
+        <v>-843.79</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>1416</v>
+        <v>1441</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C23" s="2">
-        <v>44754</v>
+        <v>45302</v>
       </c>
       <c r="D23" t="s">
         <v>58</v>
       </c>
       <c r="E23">
-        <v>-150</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>1434</v>
+        <v>1442</v>
       </c>
       <c r="B24" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="2">
-        <v>45413</v>
+        <v>45293</v>
       </c>
       <c r="D24" t="s">
         <v>59</v>
@@ -1769,146 +1694,146 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>1435</v>
+        <v>1443</v>
       </c>
       <c r="B25" t="s">
         <v>18</v>
       </c>
       <c r="C25" s="2">
-        <v>45394</v>
+        <v>45293</v>
       </c>
       <c r="D25" t="s">
         <v>60</v>
       </c>
       <c r="E25">
-        <v>1950</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>1436</v>
+        <v>1512</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C26" s="2">
-        <v>45383</v>
+        <v>44925</v>
       </c>
       <c r="D26" t="s">
         <v>61</v>
       </c>
       <c r="E26">
-        <v>-843.79</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>1437</v>
+        <v>1564</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C27" s="2">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="D27" t="s">
         <v>62</v>
       </c>
       <c r="E27">
-        <v>2100</v>
+        <v>-675.63</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>1438</v>
+        <v>1565</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C28" s="2">
-        <v>45352</v>
+        <v>45394</v>
       </c>
       <c r="D28" t="s">
         <v>63</v>
       </c>
       <c r="E28">
-        <v>-843.79</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>1439</v>
+        <v>1566</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C29" s="2">
-        <v>45335</v>
+        <v>45383</v>
       </c>
       <c r="D29" t="s">
         <v>64</v>
       </c>
       <c r="E29">
-        <v>2100</v>
+        <v>-675.63</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>1440</v>
+        <v>1567</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C30" s="2">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="D30" t="s">
         <v>65</v>
       </c>
       <c r="E30">
-        <v>-843.79</v>
+        <v>1054.95</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>1441</v>
+        <v>1568</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C31" s="2">
-        <v>45302</v>
+        <v>45352</v>
       </c>
       <c r="D31" t="s">
         <v>66</v>
       </c>
       <c r="E31">
-        <v>2100</v>
+        <v>-675.63</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>1442</v>
+        <v>1569</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C32" s="2">
-        <v>45293</v>
+        <v>45323</v>
       </c>
       <c r="D32" t="s">
         <v>67</v>
       </c>
       <c r="E32">
-        <v>-843.79</v>
+        <v>-675.63</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>1443</v>
+        <v>1570</v>
       </c>
       <c r="B33" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C33" s="2">
         <v>45293</v>
@@ -1917,1789 +1842,1789 @@
         <v>68</v>
       </c>
       <c r="E33">
-        <v>-75</v>
+        <v>-675.63</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>1485</v>
+        <v>1571</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C34" s="2">
-        <v>44925</v>
+        <v>45293</v>
       </c>
       <c r="D34" t="s">
         <v>69</v>
       </c>
       <c r="E34">
-        <v>-1158</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>1486</v>
+        <v>1646</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C35" s="2">
-        <v>44925</v>
+        <v>45413</v>
       </c>
       <c r="D35" t="s">
         <v>70</v>
       </c>
       <c r="E35">
-        <v>-3000</v>
+        <v>-1383.06</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>1487</v>
+        <v>1647</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C36" s="2">
-        <v>44925</v>
+        <v>45405</v>
       </c>
       <c r="D36" t="s">
         <v>71</v>
       </c>
       <c r="E36">
-        <v>1950</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>1498</v>
+        <v>1648</v>
       </c>
       <c r="B37" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C37" s="2">
-        <v>44837</v>
+        <v>45393</v>
       </c>
       <c r="D37" t="s">
         <v>72</v>
       </c>
       <c r="E37">
-        <v>-75</v>
+        <v>-46.18</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>1512</v>
+        <v>1649</v>
       </c>
       <c r="B38" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C38" s="2">
-        <v>44925</v>
+        <v>45386</v>
       </c>
       <c r="D38" t="s">
         <v>73</v>
       </c>
       <c r="E38">
-        <v>2500</v>
+        <v>-20.46</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>1564</v>
+        <v>1650</v>
       </c>
       <c r="B39" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C39" s="2">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="D39" t="s">
         <v>74</v>
       </c>
       <c r="E39">
-        <v>-675.63</v>
+        <v>-1383.06</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>1565</v>
+        <v>1651</v>
       </c>
       <c r="B40" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C40" s="2">
-        <v>45394</v>
+        <v>45383</v>
       </c>
       <c r="D40" t="s">
         <v>75</v>
       </c>
       <c r="E40">
-        <v>1810</v>
+        <v>4100.52</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>1566</v>
+        <v>1652</v>
       </c>
       <c r="B41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C41" s="2">
-        <v>45383</v>
+        <v>45380</v>
       </c>
       <c r="D41" t="s">
         <v>76</v>
       </c>
       <c r="E41">
-        <v>-675.63</v>
+        <v>-3981</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>1567</v>
+        <v>1653</v>
       </c>
       <c r="B42" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C42" s="2">
-        <v>45383</v>
+        <v>45380</v>
       </c>
       <c r="D42" t="s">
         <v>77</v>
       </c>
       <c r="E42">
-        <v>1054.95</v>
+        <v>475</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>1568</v>
+        <v>1654</v>
       </c>
       <c r="B43" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C43" s="2">
-        <v>45352</v>
+        <v>45369</v>
       </c>
       <c r="D43" t="s">
         <v>78</v>
       </c>
       <c r="E43">
-        <v>-675.63</v>
+        <v>-24.15</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>1569</v>
+        <v>1655</v>
       </c>
       <c r="B44" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C44" s="2">
-        <v>45323</v>
+        <v>45364</v>
       </c>
       <c r="D44" t="s">
         <v>79</v>
       </c>
       <c r="E44">
-        <v>-675.63</v>
+        <v>-57.81</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>1570</v>
+        <v>1656</v>
       </c>
       <c r="B45" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C45" s="2">
-        <v>45293</v>
+        <v>45356</v>
       </c>
       <c r="D45" t="s">
         <v>80</v>
       </c>
       <c r="E45">
-        <v>-675.63</v>
+        <v>-57.66</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>1571</v>
+        <v>1657</v>
       </c>
       <c r="B46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C46" s="2">
-        <v>45293</v>
+        <v>45355</v>
       </c>
       <c r="D46" t="s">
         <v>81</v>
       </c>
       <c r="E46">
-        <v>-75</v>
+        <v>-1383.06</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>1613</v>
+        <v>1658</v>
       </c>
       <c r="B47" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C47" s="2">
-        <v>44925</v>
+        <v>45349</v>
       </c>
       <c r="D47" t="s">
         <v>82</v>
       </c>
       <c r="E47">
-        <v>-4000</v>
+        <v>-290.62</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>1614</v>
+        <v>1659</v>
       </c>
       <c r="B48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C48" s="2">
-        <v>44925</v>
+        <v>45335</v>
       </c>
       <c r="D48" t="s">
         <v>83</v>
       </c>
       <c r="E48">
-        <v>1695</v>
+        <v>1754.75</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>1646</v>
+        <v>1660</v>
       </c>
       <c r="B49" t="s">
         <v>21</v>
       </c>
       <c r="C49" s="2">
-        <v>45413</v>
+        <v>45334</v>
       </c>
       <c r="D49" t="s">
         <v>84</v>
       </c>
       <c r="E49">
-        <v>-1383.06</v>
+        <v>-400</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>1647</v>
+        <v>1661</v>
       </c>
       <c r="B50" t="s">
         <v>21</v>
       </c>
       <c r="C50" s="2">
-        <v>45405</v>
+        <v>45334</v>
       </c>
       <c r="D50" t="s">
         <v>85</v>
       </c>
       <c r="E50">
-        <v>2090</v>
+        <v>-326.51</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>1648</v>
+        <v>1662</v>
       </c>
       <c r="B51" t="s">
         <v>21</v>
       </c>
       <c r="C51" s="2">
-        <v>45393</v>
+        <v>45330</v>
       </c>
       <c r="D51" t="s">
         <v>86</v>
       </c>
       <c r="E51">
-        <v>-46.18</v>
+        <v>-2.76</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>1649</v>
+        <v>1663</v>
       </c>
       <c r="B52" t="s">
         <v>21</v>
       </c>
       <c r="C52" s="2">
-        <v>45386</v>
+        <v>45327</v>
       </c>
       <c r="D52" t="s">
         <v>87</v>
       </c>
       <c r="E52">
-        <v>-20.46</v>
+        <v>-50.25</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>1650</v>
+        <v>1664</v>
       </c>
       <c r="B53" t="s">
         <v>21</v>
       </c>
       <c r="C53" s="2">
-        <v>45383</v>
+        <v>45327</v>
       </c>
       <c r="D53" t="s">
         <v>88</v>
       </c>
       <c r="E53">
-        <v>-1383.06</v>
+        <v>-239.07</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>1651</v>
+        <v>1665</v>
       </c>
       <c r="B54" t="s">
         <v>21</v>
       </c>
       <c r="C54" s="2">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="D54" t="s">
         <v>89</v>
       </c>
       <c r="E54">
-        <v>4100.52</v>
+        <v>-1383.06</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>1652</v>
+        <v>1666</v>
       </c>
       <c r="B55" t="s">
         <v>21</v>
       </c>
       <c r="C55" s="2">
-        <v>45380</v>
+        <v>45322</v>
       </c>
       <c r="D55" t="s">
         <v>90</v>
       </c>
       <c r="E55">
-        <v>-3981</v>
+        <v>2869.52</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>1653</v>
+        <v>1667</v>
       </c>
       <c r="B56" t="s">
         <v>21</v>
       </c>
       <c r="C56" s="2">
-        <v>45380</v>
+        <v>45320</v>
       </c>
       <c r="D56" t="s">
         <v>91</v>
       </c>
       <c r="E56">
-        <v>475</v>
+        <v>-290.58</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>1654</v>
+        <v>1668</v>
       </c>
       <c r="B57" t="s">
         <v>21</v>
       </c>
       <c r="C57" s="2">
-        <v>45369</v>
+        <v>45313</v>
       </c>
       <c r="D57" t="s">
         <v>92</v>
       </c>
       <c r="E57">
-        <v>-24.15</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>1655</v>
+        <v>1669</v>
       </c>
       <c r="B58" t="s">
         <v>21</v>
       </c>
       <c r="C58" s="2">
-        <v>45364</v>
+        <v>45303</v>
       </c>
       <c r="D58" t="s">
         <v>93</v>
       </c>
       <c r="E58">
-        <v>-57.81</v>
+        <v>-90.48</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>1656</v>
+        <v>1670</v>
       </c>
       <c r="B59" t="s">
         <v>21</v>
       </c>
       <c r="C59" s="2">
-        <v>45356</v>
+        <v>45302</v>
       </c>
       <c r="D59" t="s">
         <v>94</v>
       </c>
       <c r="E59">
-        <v>-57.66</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>1657</v>
+        <v>1671</v>
       </c>
       <c r="B60" t="s">
         <v>21</v>
       </c>
       <c r="C60" s="2">
-        <v>45355</v>
+        <v>45301</v>
       </c>
       <c r="D60" t="s">
         <v>95</v>
       </c>
       <c r="E60">
-        <v>-1383.06</v>
+        <v>-11706.53</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>1658</v>
+        <v>1672</v>
       </c>
       <c r="B61" t="s">
         <v>21</v>
       </c>
       <c r="C61" s="2">
-        <v>45349</v>
+        <v>45300</v>
       </c>
       <c r="D61" t="s">
         <v>96</v>
       </c>
       <c r="E61">
-        <v>-290.62</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>1659</v>
+        <v>1673</v>
       </c>
       <c r="B62" t="s">
         <v>21</v>
       </c>
       <c r="C62" s="2">
-        <v>45335</v>
+        <v>45295</v>
       </c>
       <c r="D62" t="s">
         <v>97</v>
       </c>
       <c r="E62">
-        <v>1754.75</v>
+        <v>-50.25</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>1660</v>
+        <v>1674</v>
       </c>
       <c r="B63" t="s">
         <v>21</v>
       </c>
       <c r="C63" s="2">
-        <v>45334</v>
+        <v>45295</v>
       </c>
       <c r="D63" t="s">
         <v>98</v>
       </c>
       <c r="E63">
-        <v>-400</v>
+        <v>-178.83</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>1661</v>
+        <v>1675</v>
       </c>
       <c r="B64" t="s">
         <v>21</v>
       </c>
       <c r="C64" s="2">
-        <v>45334</v>
+        <v>45293</v>
       </c>
       <c r="D64" t="s">
         <v>99</v>
       </c>
       <c r="E64">
-        <v>-326.51</v>
+        <v>-1383.06</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>1662</v>
+        <v>2000</v>
       </c>
       <c r="B65" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C65" s="2">
-        <v>45330</v>
+        <v>45415</v>
       </c>
       <c r="D65" t="s">
         <v>100</v>
       </c>
       <c r="E65">
-        <v>-2.76</v>
+        <v>26408.07</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>1663</v>
+        <v>2001</v>
       </c>
       <c r="B66" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C66" s="2">
-        <v>45327</v>
+        <v>45413</v>
       </c>
       <c r="D66" t="s">
         <v>101</v>
       </c>
       <c r="E66">
-        <v>-50.25</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>1664</v>
+        <v>2002</v>
       </c>
       <c r="B67" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C67" s="2">
-        <v>45327</v>
+        <v>45411</v>
       </c>
       <c r="D67" t="s">
         <v>102</v>
       </c>
       <c r="E67">
-        <v>-239.07</v>
+        <v>-4830</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>1665</v>
+        <v>2003</v>
       </c>
       <c r="B68" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C68" s="2">
-        <v>45323</v>
+        <v>45404</v>
       </c>
       <c r="D68" t="s">
         <v>103</v>
       </c>
       <c r="E68">
-        <v>-1383.06</v>
+        <v>-1543.07</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>1666</v>
+        <v>2004</v>
       </c>
       <c r="B69" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C69" s="2">
-        <v>45322</v>
+        <v>45397</v>
       </c>
       <c r="D69" t="s">
         <v>104</v>
       </c>
       <c r="E69">
-        <v>2869.52</v>
+        <v>-77.28</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>1667</v>
+        <v>2005</v>
       </c>
       <c r="B70" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C70" s="2">
-        <v>45320</v>
+        <v>45393</v>
       </c>
       <c r="D70" t="s">
         <v>105</v>
       </c>
       <c r="E70">
-        <v>-290.58</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>1668</v>
+        <v>2006</v>
       </c>
       <c r="B71" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C71" s="2">
-        <v>45313</v>
+        <v>45392</v>
       </c>
       <c r="D71" t="s">
         <v>106</v>
       </c>
       <c r="E71">
-        <v>-200</v>
+        <v>-956.2</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="B72" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C72" s="2">
-        <v>45303</v>
+        <v>45390</v>
       </c>
       <c r="D72" t="s">
         <v>107</v>
       </c>
       <c r="E72">
-        <v>-90.48</v>
+        <v>-9541.83</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>1670</v>
+        <v>2008</v>
       </c>
       <c r="B73" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C73" s="2">
-        <v>45302</v>
+        <v>45383</v>
       </c>
       <c r="D73" t="s">
         <v>108</v>
       </c>
       <c r="E73">
-        <v>2240</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>1671</v>
+        <v>2009</v>
       </c>
       <c r="B74" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C74" s="2">
-        <v>45301</v>
+        <v>45383</v>
       </c>
       <c r="D74" t="s">
         <v>109</v>
       </c>
       <c r="E74">
-        <v>-11706.53</v>
+        <v>20683</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>1672</v>
+        <v>2010</v>
       </c>
       <c r="B75" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C75" s="2">
-        <v>45300</v>
+        <v>45380</v>
       </c>
       <c r="D75" t="s">
         <v>110</v>
       </c>
       <c r="E75">
-        <v>12000</v>
+        <v>-975</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>1673</v>
+        <v>2011</v>
       </c>
       <c r="B76" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C76" s="2">
-        <v>45295</v>
+        <v>45371</v>
       </c>
       <c r="D76" t="s">
         <v>111</v>
       </c>
       <c r="E76">
-        <v>-50.25</v>
+        <v>-1477.25</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>1674</v>
+        <v>2012</v>
       </c>
       <c r="B77" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C77" s="2">
-        <v>45295</v>
+        <v>45366</v>
       </c>
       <c r="D77" t="s">
         <v>112</v>
       </c>
       <c r="E77">
-        <v>-178.83</v>
+        <v>-4600</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>1675</v>
+        <v>2013</v>
       </c>
       <c r="B78" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C78" s="2">
-        <v>45293</v>
+        <v>45364</v>
       </c>
       <c r="D78" t="s">
         <v>113</v>
       </c>
       <c r="E78">
-        <v>-1383.06</v>
+        <v>-77.28</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>1697</v>
+        <v>2014</v>
       </c>
       <c r="B79" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C79" s="2">
-        <v>45233</v>
+        <v>45363</v>
       </c>
       <c r="D79" t="s">
         <v>114</v>
       </c>
       <c r="E79">
-        <v>-240.18</v>
+        <v>-1073.44</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>1863</v>
+        <v>2015</v>
       </c>
       <c r="B80" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C80" s="2">
-        <v>44925</v>
+        <v>45357</v>
       </c>
       <c r="D80" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E80">
-        <v>-1695</v>
+        <v>-9228.639999999999</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>1864</v>
+        <v>2016</v>
       </c>
       <c r="B81" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C81" s="2">
-        <v>44925</v>
+        <v>45352</v>
       </c>
       <c r="D81" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E81">
-        <v>-159.28</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>1865</v>
+        <v>2017</v>
       </c>
       <c r="B82" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C82" s="2">
-        <v>44925</v>
+        <v>45342</v>
       </c>
       <c r="D82" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E82">
-        <v>-10000</v>
+        <v>-1130.83</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>1866</v>
+        <v>2018</v>
       </c>
       <c r="B83" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C83" s="2">
-        <v>44925</v>
+        <v>45338</v>
       </c>
       <c r="D83" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E83">
-        <v>-4853</v>
+        <v>27021.18</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>1867</v>
+        <v>2019</v>
       </c>
       <c r="B84" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C84" s="2">
-        <v>44925</v>
+        <v>45335</v>
       </c>
       <c r="D84" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E84">
-        <v>-3200</v>
+        <v>-75.26000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>1868</v>
+        <v>2020</v>
       </c>
       <c r="B85" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C85" s="2">
-        <v>44925</v>
+        <v>45334</v>
       </c>
       <c r="D85" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E85">
-        <v>3200</v>
+        <v>-1200.45</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>1869</v>
+        <v>2021</v>
       </c>
       <c r="B86" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C86" s="2">
-        <v>44925</v>
+        <v>45334</v>
       </c>
       <c r="D86" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E86">
-        <v>1695</v>
+        <v>-1200</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>1939</v>
+        <v>2022</v>
       </c>
       <c r="B87" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C87" s="2">
-        <v>44763</v>
+        <v>45328</v>
       </c>
       <c r="D87" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="E87">
-        <v>-400</v>
+        <v>-9541.83</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>1940</v>
+        <v>2023</v>
       </c>
       <c r="B88" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C88" s="2">
-        <v>44753</v>
+        <v>45327</v>
       </c>
       <c r="D88" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E88">
-        <v>-150</v>
+        <v>28936.5</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>1983</v>
+        <v>2024</v>
       </c>
       <c r="B89" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C89" s="2">
-        <v>44704</v>
+        <v>45323</v>
       </c>
       <c r="D89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E89">
-        <v>-934</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>2000</v>
+        <v>2025</v>
       </c>
       <c r="B90" t="s">
         <v>22</v>
       </c>
       <c r="C90" s="2">
-        <v>45415</v>
+        <v>45321</v>
       </c>
       <c r="D90" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E90">
-        <v>26408.07</v>
+        <v>-1105</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>2001</v>
+        <v>2026</v>
       </c>
       <c r="B91" t="s">
         <v>22</v>
       </c>
       <c r="C91" s="2">
-        <v>45413</v>
+        <v>45313</v>
       </c>
       <c r="D91" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E91">
-        <v>-1500</v>
+        <v>-870.24</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>2002</v>
+        <v>2027</v>
       </c>
       <c r="B92" t="s">
         <v>22</v>
       </c>
       <c r="C92" s="2">
-        <v>45411</v>
+        <v>45307</v>
       </c>
       <c r="D92" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E92">
-        <v>-4830</v>
+        <v>-75.26000000000001</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>2003</v>
+        <v>2028</v>
       </c>
       <c r="B93" t="s">
         <v>22</v>
       </c>
       <c r="C93" s="2">
-        <v>45404</v>
+        <v>45303</v>
       </c>
       <c r="D93" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E93">
-        <v>-1543.07</v>
+        <v>-44.34</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>2004</v>
+        <v>2029</v>
       </c>
       <c r="B94" t="s">
         <v>22</v>
       </c>
       <c r="C94" s="2">
-        <v>45397</v>
+        <v>45302</v>
       </c>
       <c r="D94" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E94">
-        <v>-77.28</v>
+        <v>-995.28</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>2005</v>
+        <v>2030</v>
       </c>
       <c r="B95" t="s">
         <v>22</v>
       </c>
       <c r="C95" s="2">
-        <v>45393</v>
+        <v>45299</v>
       </c>
       <c r="D95" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E95">
-        <v>-100</v>
+        <v>-9541.83</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>2006</v>
+        <v>2031</v>
       </c>
       <c r="B96" t="s">
         <v>22</v>
       </c>
       <c r="C96" s="2">
-        <v>45392</v>
+        <v>45293</v>
       </c>
       <c r="D96" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E96">
-        <v>-956.2</v>
+        <v>-300</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>2007</v>
+        <v>2032</v>
       </c>
       <c r="B97" t="s">
         <v>22</v>
       </c>
       <c r="C97" s="2">
-        <v>45390</v>
+        <v>45293</v>
       </c>
       <c r="D97" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E97">
-        <v>-9541.83</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>2008</v>
+        <v>2042</v>
       </c>
       <c r="B98" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C98" s="2">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="D98" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E98">
-        <v>-1500</v>
+        <v>-748.9299999999999</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>2009</v>
+        <v>2043</v>
       </c>
       <c r="B99" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C99" s="2">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="D99" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E99">
-        <v>20683</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>2010</v>
+        <v>2044</v>
       </c>
       <c r="B100" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C100" s="2">
-        <v>45380</v>
+        <v>45394</v>
       </c>
       <c r="D100" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E100">
-        <v>-975</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
-        <v>2011</v>
+        <v>2045</v>
       </c>
       <c r="B101" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C101" s="2">
-        <v>45371</v>
+        <v>45383</v>
       </c>
       <c r="D101" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E101">
-        <v>-1477.25</v>
+        <v>-748.9299999999999</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102">
-        <v>2012</v>
+        <v>2046</v>
       </c>
       <c r="B102" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C102" s="2">
-        <v>45366</v>
+        <v>45383</v>
       </c>
       <c r="D102" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E102">
-        <v>-4600</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103">
-        <v>2013</v>
+        <v>2047</v>
       </c>
       <c r="B103" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C103" s="2">
-        <v>45364</v>
+        <v>45383</v>
       </c>
       <c r="D103" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E103">
-        <v>-77.28</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104">
-        <v>2014</v>
+        <v>2048</v>
       </c>
       <c r="B104" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C104" s="2">
-        <v>45363</v>
+        <v>45352</v>
       </c>
       <c r="D104" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E104">
-        <v>-1073.44</v>
+        <v>-748.9299999999999</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105">
-        <v>2015</v>
+        <v>2049</v>
       </c>
       <c r="B105" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C105" s="2">
-        <v>45357</v>
+        <v>45352</v>
       </c>
       <c r="D105" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E105">
-        <v>-9228.639999999999</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106">
-        <v>2016</v>
+        <v>2050</v>
       </c>
       <c r="B106" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C106" s="2">
-        <v>45352</v>
+        <v>45335</v>
       </c>
       <c r="D106" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E106">
-        <v>-1500</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107">
-        <v>2017</v>
+        <v>2051</v>
       </c>
       <c r="B107" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C107" s="2">
-        <v>45342</v>
+        <v>45323</v>
       </c>
       <c r="D107" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E107">
-        <v>-1130.83</v>
+        <v>-748.9299999999999</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108">
-        <v>2018</v>
+        <v>2052</v>
       </c>
       <c r="B108" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C108" s="2">
-        <v>45338</v>
+        <v>45323</v>
       </c>
       <c r="D108" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E108">
-        <v>27021.18</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109">
-        <v>2019</v>
+        <v>2053</v>
       </c>
       <c r="B109" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C109" s="2">
-        <v>45335</v>
+        <v>45302</v>
       </c>
       <c r="D109" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E109">
-        <v>-75.26000000000001</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110">
-        <v>2020</v>
+        <v>2054</v>
       </c>
       <c r="B110" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C110" s="2">
-        <v>45334</v>
+        <v>45293</v>
       </c>
       <c r="D110" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E110">
-        <v>-1200.45</v>
+        <v>-748.9299999999999</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111">
-        <v>2021</v>
+        <v>2055</v>
       </c>
       <c r="B111" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C111" s="2">
-        <v>45334</v>
+        <v>45293</v>
       </c>
       <c r="D111" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E111">
-        <v>-1200</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112">
-        <v>2022</v>
+        <v>2063</v>
       </c>
       <c r="B112" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C112" s="2">
-        <v>45328</v>
+        <v>45413</v>
       </c>
       <c r="D112" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="E112">
-        <v>-9541.83</v>
+        <v>-456.02</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113">
-        <v>2023</v>
+        <v>2064</v>
       </c>
       <c r="B113" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C113" s="2">
-        <v>45327</v>
+        <v>45413</v>
       </c>
       <c r="D113" t="s">
         <v>146</v>
       </c>
       <c r="E113">
-        <v>28936.5</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114">
-        <v>2024</v>
+        <v>2065</v>
       </c>
       <c r="B114" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C114" s="2">
-        <v>45323</v>
+        <v>45394</v>
       </c>
       <c r="D114" t="s">
         <v>147</v>
       </c>
       <c r="E114">
-        <v>-1500</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115">
-        <v>2025</v>
+        <v>2066</v>
       </c>
       <c r="B115" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C115" s="2">
-        <v>45321</v>
+        <v>45391</v>
       </c>
       <c r="D115" t="s">
         <v>148</v>
       </c>
       <c r="E115">
-        <v>-1105</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116">
-        <v>2026</v>
+        <v>2067</v>
       </c>
       <c r="B116" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C116" s="2">
-        <v>45313</v>
+        <v>45383</v>
       </c>
       <c r="D116" t="s">
         <v>149</v>
       </c>
       <c r="E116">
-        <v>-870.24</v>
+        <v>-456.02</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117">
-        <v>2027</v>
+        <v>2068</v>
       </c>
       <c r="B117" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C117" s="2">
-        <v>45307</v>
+        <v>45383</v>
       </c>
       <c r="D117" t="s">
         <v>150</v>
       </c>
       <c r="E117">
-        <v>-75.26000000000001</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118">
-        <v>2028</v>
+        <v>2069</v>
       </c>
       <c r="B118" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C118" s="2">
-        <v>45303</v>
+        <v>45383</v>
       </c>
       <c r="D118" t="s">
         <v>151</v>
       </c>
       <c r="E118">
-        <v>-44.34</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119">
-        <v>2029</v>
+        <v>2070</v>
       </c>
       <c r="B119" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C119" s="2">
-        <v>45302</v>
+        <v>45362</v>
       </c>
       <c r="D119" t="s">
         <v>152</v>
       </c>
       <c r="E119">
-        <v>-995.28</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120">
-        <v>2030</v>
+        <v>2071</v>
       </c>
       <c r="B120" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C120" s="2">
-        <v>45299</v>
+        <v>45355</v>
       </c>
       <c r="D120" t="s">
         <v>153</v>
       </c>
       <c r="E120">
-        <v>-9541.83</v>
+        <v>-456.02</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121">
-        <v>2031</v>
+        <v>2072</v>
       </c>
       <c r="B121" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C121" s="2">
-        <v>45293</v>
+        <v>45352</v>
       </c>
       <c r="D121" t="s">
         <v>154</v>
       </c>
       <c r="E121">
-        <v>-300</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122">
-        <v>2032</v>
+        <v>2073</v>
       </c>
       <c r="B122" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C122" s="2">
-        <v>45293</v>
+        <v>45335</v>
       </c>
       <c r="D122" t="s">
         <v>155</v>
       </c>
       <c r="E122">
-        <v>-1500</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123">
-        <v>2042</v>
+        <v>2074</v>
       </c>
       <c r="B123" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C123" s="2">
-        <v>45413</v>
+        <v>45331</v>
       </c>
       <c r="D123" t="s">
         <v>156</v>
       </c>
       <c r="E123">
-        <v>-748.9299999999999</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124">
-        <v>2043</v>
+        <v>2075</v>
       </c>
       <c r="B124" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C124" s="2">
-        <v>45413</v>
+        <v>45323</v>
       </c>
       <c r="D124" t="s">
         <v>157</v>
       </c>
       <c r="E124">
-        <v>-75</v>
+        <v>-456.02</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125">
-        <v>2044</v>
+        <v>2076</v>
       </c>
       <c r="B125" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C125" s="2">
-        <v>45394</v>
+        <v>45323</v>
       </c>
       <c r="D125" t="s">
         <v>158</v>
       </c>
       <c r="E125">
-        <v>1391</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126">
-        <v>2045</v>
+        <v>2077</v>
       </c>
       <c r="B126" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C126" s="2">
-        <v>45383</v>
+        <v>45302</v>
       </c>
       <c r="D126" t="s">
         <v>159</v>
       </c>
       <c r="E126">
-        <v>-748.9299999999999</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127">
-        <v>2046</v>
+        <v>2078</v>
       </c>
       <c r="B127" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C127" s="2">
-        <v>45383</v>
+        <v>45300</v>
       </c>
       <c r="D127" t="s">
         <v>160</v>
       </c>
       <c r="E127">
-        <v>-75</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128">
-        <v>2047</v>
+        <v>2079</v>
       </c>
       <c r="B128" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C128" s="2">
-        <v>45383</v>
+        <v>45293</v>
       </c>
       <c r="D128" t="s">
         <v>161</v>
       </c>
       <c r="E128">
-        <v>1850</v>
+        <v>-456.02</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129">
-        <v>2048</v>
+        <v>2080</v>
       </c>
       <c r="B129" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C129" s="2">
-        <v>45352</v>
+        <v>45293</v>
       </c>
       <c r="D129" t="s">
         <v>162</v>
       </c>
       <c r="E129">
-        <v>-748.9299999999999</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130">
-        <v>2049</v>
+        <v>2086</v>
       </c>
       <c r="B130" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C130" s="2">
-        <v>45352</v>
+        <v>45412</v>
       </c>
       <c r="D130" t="s">
         <v>163</v>
       </c>
       <c r="E130">
-        <v>-75</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131">
-        <v>2050</v>
+        <v>2087</v>
       </c>
       <c r="B131" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C131" s="2">
-        <v>45335</v>
+        <v>45380</v>
       </c>
       <c r="D131" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E131">
-        <v>1850</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132">
-        <v>2051</v>
+        <v>2088</v>
       </c>
       <c r="B132" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C132" s="2">
-        <v>45323</v>
+        <v>45351</v>
       </c>
       <c r="D132" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E132">
-        <v>-748.9299999999999</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133">
-        <v>2052</v>
+        <v>2089</v>
       </c>
       <c r="B133" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C133" s="2">
-        <v>45323</v>
+        <v>45322</v>
       </c>
       <c r="D133" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E133">
-        <v>-75</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134">
-        <v>2053</v>
+        <v>2093</v>
       </c>
       <c r="B134" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C134" s="2">
-        <v>45302</v>
+        <v>45413</v>
       </c>
       <c r="D134" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E134">
-        <v>2159</v>
+        <v>-563.38</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135">
-        <v>2054</v>
+        <v>2094</v>
       </c>
       <c r="B135" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C135" s="2">
-        <v>45293</v>
+        <v>45413</v>
       </c>
       <c r="D135" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E135">
-        <v>-748.9299999999999</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136">
-        <v>2055</v>
+        <v>2095</v>
       </c>
       <c r="B136" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C136" s="2">
-        <v>45293</v>
+        <v>45405</v>
       </c>
       <c r="D136" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E136">
-        <v>-75</v>
+        <v>3615</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137">
-        <v>2063</v>
+        <v>2096</v>
       </c>
       <c r="B137" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C137" s="2">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="D137" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E137">
-        <v>-456.02</v>
+        <v>-563.38</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138">
-        <v>2064</v>
+        <v>2097</v>
       </c>
       <c r="B138" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C138" s="2">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="D138" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E138">
         <v>-75</v>
@@ -3707,472 +3632,472 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139">
-        <v>2065</v>
+        <v>2098</v>
       </c>
       <c r="B139" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C139" s="2">
-        <v>45394</v>
+        <v>45383</v>
       </c>
       <c r="D139" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E139">
-        <v>1316</v>
+        <v>4165</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140">
-        <v>2066</v>
+        <v>2099</v>
       </c>
       <c r="B140" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C140" s="2">
-        <v>45391</v>
+        <v>45355</v>
       </c>
       <c r="D140" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E140">
-        <v>-150</v>
+        <v>-563.38</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141">
-        <v>2067</v>
+        <v>2100</v>
       </c>
       <c r="B141" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C141" s="2">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="D141" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E141">
-        <v>-456.02</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142">
-        <v>2068</v>
+        <v>2101</v>
       </c>
       <c r="B142" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C142" s="2">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="D142" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E142">
-        <v>-75</v>
+        <v>-563.38</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143">
-        <v>2069</v>
+        <v>2102</v>
       </c>
       <c r="B143" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C143" s="2">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="D143" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E143">
-        <v>1850</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144">
-        <v>2070</v>
+        <v>2103</v>
       </c>
       <c r="B144" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C144" s="2">
-        <v>45362</v>
+        <v>45293</v>
       </c>
       <c r="D144" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E144">
-        <v>-150</v>
+        <v>-563.38</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145">
-        <v>2071</v>
+        <v>2104</v>
       </c>
       <c r="B145" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C145" s="2">
-        <v>45355</v>
+        <v>45293</v>
       </c>
       <c r="D145" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E145">
-        <v>-456.02</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146">
-        <v>2072</v>
+        <v>2120</v>
       </c>
       <c r="B146" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C146" s="2">
-        <v>45352</v>
+        <v>45414</v>
       </c>
       <c r="D146" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E146">
-        <v>-75</v>
+        <v>-963.16</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147">
-        <v>2073</v>
+        <v>2121</v>
       </c>
       <c r="B147" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C147" s="2">
-        <v>45335</v>
+        <v>45413</v>
       </c>
       <c r="D147" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E147">
-        <v>1850</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148">
-        <v>2074</v>
+        <v>2122</v>
       </c>
       <c r="B148" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C148" s="2">
-        <v>45331</v>
+        <v>45399</v>
       </c>
       <c r="D148" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E148">
-        <v>-150</v>
+        <v>-356.49</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149">
-        <v>2075</v>
+        <v>2123</v>
       </c>
       <c r="B149" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C149" s="2">
-        <v>45323</v>
+        <v>45394</v>
       </c>
       <c r="D149" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E149">
-        <v>-456.02</v>
+        <v>3854</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150">
-        <v>2076</v>
+        <v>2124</v>
       </c>
       <c r="B150" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C150" s="2">
-        <v>45323</v>
+        <v>45384</v>
       </c>
       <c r="D150" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E150">
-        <v>-75</v>
+        <v>-963.16</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151">
-        <v>2077</v>
+        <v>2125</v>
       </c>
       <c r="B151" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C151" s="2">
-        <v>45302</v>
+        <v>45383</v>
       </c>
       <c r="D151" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E151">
-        <v>2159</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152">
-        <v>2078</v>
+        <v>2126</v>
       </c>
       <c r="B152" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C152" s="2">
-        <v>45300</v>
+        <v>45383</v>
       </c>
       <c r="D152" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E152">
-        <v>-150</v>
+        <v>3779</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153">
-        <v>2079</v>
+        <v>2127</v>
       </c>
       <c r="B153" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C153" s="2">
-        <v>45293</v>
+        <v>45369</v>
       </c>
       <c r="D153" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E153">
-        <v>-456.02</v>
+        <v>-356.49</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154">
-        <v>2080</v>
+        <v>2128</v>
       </c>
       <c r="B154" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C154" s="2">
-        <v>45293</v>
+        <v>45355</v>
       </c>
       <c r="D154" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E154">
-        <v>-75</v>
+        <v>-963.16</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155">
-        <v>2086</v>
+        <v>2129</v>
       </c>
       <c r="B155" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C155" s="2">
-        <v>45412</v>
+        <v>45352</v>
       </c>
       <c r="D155" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E155">
-        <v>0.02</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156">
-        <v>2087</v>
+        <v>2130</v>
       </c>
       <c r="B156" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C156" s="2">
-        <v>45380</v>
+        <v>45342</v>
       </c>
       <c r="D156" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E156">
-        <v>0.01</v>
+        <v>-356.49</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157">
-        <v>2088</v>
+        <v>2131</v>
       </c>
       <c r="B157" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C157" s="2">
-        <v>45351</v>
+        <v>45335</v>
       </c>
       <c r="D157" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E157">
-        <v>0.02</v>
+        <v>3929</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158">
-        <v>2089</v>
+        <v>2132</v>
       </c>
       <c r="B158" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C158" s="2">
-        <v>45322</v>
+        <v>45324</v>
       </c>
       <c r="D158" t="s">
         <v>188</v>
       </c>
       <c r="E158">
-        <v>0.04</v>
+        <v>-963.16</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159">
-        <v>2093</v>
+        <v>2133</v>
       </c>
       <c r="B159" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C159" s="2">
-        <v>45413</v>
+        <v>45323</v>
       </c>
       <c r="D159" t="s">
         <v>189</v>
       </c>
       <c r="E159">
-        <v>-563.38</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160">
-        <v>2094</v>
+        <v>2134</v>
       </c>
       <c r="B160" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C160" s="2">
-        <v>45413</v>
+        <v>45321</v>
       </c>
       <c r="D160" t="s">
         <v>190</v>
       </c>
       <c r="E160">
-        <v>-75</v>
+        <v>-2335.94</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161">
-        <v>2095</v>
+        <v>2135</v>
       </c>
       <c r="B161" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C161" s="2">
-        <v>45405</v>
+        <v>45309</v>
       </c>
       <c r="D161" t="s">
         <v>191</v>
       </c>
       <c r="E161">
-        <v>3615</v>
+        <v>-356.49</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162">
-        <v>2096</v>
+        <v>2136</v>
       </c>
       <c r="B162" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C162" s="2">
-        <v>45383</v>
+        <v>45302</v>
       </c>
       <c r="D162" t="s">
         <v>192</v>
       </c>
       <c r="E162">
-        <v>-563.38</v>
+        <v>3929</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163">
-        <v>2097</v>
+        <v>2137</v>
       </c>
       <c r="B163" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C163" s="2">
-        <v>45383</v>
+        <v>45293</v>
       </c>
       <c r="D163" t="s">
         <v>193</v>
       </c>
       <c r="E163">
-        <v>-75</v>
+        <v>-963.16</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164">
-        <v>2098</v>
+        <v>2138</v>
       </c>
       <c r="B164" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C164" s="2">
-        <v>45383</v>
+        <v>45293</v>
       </c>
       <c r="D164" t="s">
         <v>194</v>
       </c>
       <c r="E164">
-        <v>4165</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165">
-        <v>2099</v>
+        <v>2145</v>
       </c>
       <c r="B165" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C165" s="2">
-        <v>45355</v>
+        <v>45414</v>
       </c>
       <c r="D165" t="s">
         <v>195</v>
       </c>
       <c r="E165">
-        <v>-563.38</v>
+        <v>-730.2</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166">
-        <v>2100</v>
+        <v>2146</v>
       </c>
       <c r="B166" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C166" s="2">
-        <v>45352</v>
+        <v>45413</v>
       </c>
       <c r="D166" t="s">
         <v>196</v>
@@ -4183,829 +4108,829 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167">
-        <v>2101</v>
+        <v>2147</v>
       </c>
       <c r="B167" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C167" s="2">
-        <v>45323</v>
+        <v>45394</v>
       </c>
       <c r="D167" t="s">
         <v>197</v>
       </c>
       <c r="E167">
-        <v>-563.38</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168">
-        <v>2102</v>
+        <v>2148</v>
       </c>
       <c r="B168" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C168" s="2">
-        <v>45323</v>
+        <v>45384</v>
       </c>
       <c r="D168" t="s">
         <v>198</v>
       </c>
       <c r="E168">
-        <v>-75</v>
+        <v>-730.2</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169">
-        <v>2103</v>
+        <v>2149</v>
       </c>
       <c r="B169" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C169" s="2">
-        <v>45293</v>
+        <v>45383</v>
       </c>
       <c r="D169" t="s">
         <v>199</v>
       </c>
       <c r="E169">
-        <v>-563.38</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170">
-        <v>2104</v>
+        <v>2150</v>
       </c>
       <c r="B170" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C170" s="2">
-        <v>45293</v>
+        <v>45383</v>
       </c>
       <c r="D170" t="s">
         <v>200</v>
       </c>
       <c r="E170">
-        <v>-75</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171">
-        <v>2120</v>
+        <v>2151</v>
       </c>
       <c r="B171" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C171" s="2">
-        <v>45414</v>
+        <v>45355</v>
       </c>
       <c r="D171" t="s">
         <v>201</v>
       </c>
       <c r="E171">
-        <v>-963.16</v>
+        <v>-730.2</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172">
-        <v>2121</v>
+        <v>2152</v>
       </c>
       <c r="B172" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C172" s="2">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="D172" t="s">
         <v>202</v>
       </c>
       <c r="E172">
-        <v>-150</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173">
-        <v>2122</v>
+        <v>2153</v>
       </c>
       <c r="B173" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C173" s="2">
-        <v>45399</v>
+        <v>45335</v>
       </c>
       <c r="D173" t="s">
         <v>203</v>
       </c>
       <c r="E173">
-        <v>-356.49</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174">
-        <v>2123</v>
+        <v>2154</v>
       </c>
       <c r="B174" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C174" s="2">
-        <v>45394</v>
+        <v>45324</v>
       </c>
       <c r="D174" t="s">
         <v>204</v>
       </c>
       <c r="E174">
-        <v>3854</v>
+        <v>-730.2</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175">
-        <v>2124</v>
+        <v>2155</v>
       </c>
       <c r="B175" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C175" s="2">
-        <v>45384</v>
+        <v>45323</v>
       </c>
       <c r="D175" t="s">
         <v>205</v>
       </c>
       <c r="E175">
-        <v>-963.16</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176">
-        <v>2125</v>
+        <v>2156</v>
       </c>
       <c r="B176" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C176" s="2">
-        <v>45383</v>
+        <v>45302</v>
       </c>
       <c r="D176" t="s">
         <v>206</v>
       </c>
       <c r="E176">
-        <v>-150</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177">
-        <v>2126</v>
+        <v>2157</v>
       </c>
       <c r="B177" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C177" s="2">
-        <v>45383</v>
+        <v>45293</v>
       </c>
       <c r="D177" t="s">
         <v>207</v>
       </c>
       <c r="E177">
-        <v>3779</v>
+        <v>-730.2</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178">
-        <v>2127</v>
+        <v>2158</v>
       </c>
       <c r="B178" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C178" s="2">
-        <v>45369</v>
+        <v>45293</v>
       </c>
       <c r="D178" t="s">
         <v>208</v>
       </c>
       <c r="E178">
-        <v>-356.49</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179">
-        <v>2128</v>
+        <v>2164</v>
       </c>
       <c r="B179" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C179" s="2">
-        <v>45355</v>
+        <v>45412</v>
       </c>
       <c r="D179" t="s">
-        <v>209</v>
+        <v>163</v>
       </c>
       <c r="E179">
-        <v>-963.16</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180">
-        <v>2129</v>
+        <v>2165</v>
       </c>
       <c r="B180" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C180" s="2">
-        <v>45352</v>
+        <v>45391</v>
       </c>
       <c r="D180" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E180">
-        <v>-150</v>
+        <v>150</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181">
-        <v>2130</v>
+        <v>2166</v>
       </c>
       <c r="B181" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C181" s="2">
-        <v>45342</v>
+        <v>45380</v>
       </c>
       <c r="D181" t="s">
-        <v>211</v>
+        <v>163</v>
       </c>
       <c r="E181">
-        <v>-356.49</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182">
-        <v>2131</v>
+        <v>2167</v>
       </c>
       <c r="B182" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C182" s="2">
-        <v>45335</v>
+        <v>45362</v>
       </c>
       <c r="D182" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E182">
-        <v>3929</v>
+        <v>150</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183">
-        <v>2132</v>
+        <v>2168</v>
       </c>
       <c r="B183" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C183" s="2">
-        <v>45324</v>
+        <v>45351</v>
       </c>
       <c r="D183" t="s">
-        <v>213</v>
+        <v>163</v>
       </c>
       <c r="E183">
-        <v>-963.16</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184">
-        <v>2133</v>
+        <v>2169</v>
       </c>
       <c r="B184" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C184" s="2">
-        <v>45323</v>
+        <v>45331</v>
       </c>
       <c r="D184" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E184">
-        <v>-150</v>
+        <v>150</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185">
-        <v>2134</v>
+        <v>2170</v>
       </c>
       <c r="B185" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C185" s="2">
-        <v>45321</v>
+        <v>45322</v>
       </c>
       <c r="D185" t="s">
-        <v>215</v>
+        <v>163</v>
       </c>
       <c r="E185">
-        <v>-2335.94</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186">
-        <v>2135</v>
+        <v>2171</v>
       </c>
       <c r="B186" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C186" s="2">
-        <v>45309</v>
+        <v>45300</v>
       </c>
       <c r="D186" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E186">
-        <v>-356.49</v>
+        <v>150</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187">
-        <v>2136</v>
+        <v>2175</v>
       </c>
       <c r="B187" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C187" s="2">
-        <v>45302</v>
+        <v>45413</v>
       </c>
       <c r="D187" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E187">
-        <v>3929</v>
+        <v>-733.95</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188">
-        <v>2137</v>
+        <v>2176</v>
       </c>
       <c r="B188" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C188" s="2">
-        <v>45293</v>
+        <v>45413</v>
       </c>
       <c r="D188" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E188">
-        <v>-963.16</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189">
-        <v>2138</v>
+        <v>2177</v>
       </c>
       <c r="B189" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C189" s="2">
-        <v>45293</v>
+        <v>45383</v>
       </c>
       <c r="D189" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E189">
-        <v>-150</v>
+        <v>-733.95</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190">
-        <v>2145</v>
+        <v>2178</v>
       </c>
       <c r="B190" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C190" s="2">
-        <v>45414</v>
+        <v>45383</v>
       </c>
       <c r="D190" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E190">
-        <v>-730.2</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191">
-        <v>2146</v>
+        <v>2179</v>
       </c>
       <c r="B191" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C191" s="2">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="D191" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E191">
-        <v>-75</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192">
-        <v>2147</v>
+        <v>2180</v>
       </c>
       <c r="B192" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C192" s="2">
-        <v>45394</v>
+        <v>45352</v>
       </c>
       <c r="D192" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E192">
-        <v>1491</v>
+        <v>-733.95</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193">
-        <v>2148</v>
+        <v>2181</v>
       </c>
       <c r="B193" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C193" s="2">
-        <v>45384</v>
+        <v>45352</v>
       </c>
       <c r="D193" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E193">
-        <v>-730.2</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194">
-        <v>2149</v>
+        <v>2182</v>
       </c>
       <c r="B194" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C194" s="2">
-        <v>45383</v>
+        <v>45335</v>
       </c>
       <c r="D194" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E194">
-        <v>-75</v>
+        <v>155</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195">
-        <v>2150</v>
+        <v>2183</v>
       </c>
       <c r="B195" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C195" s="2">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="D195" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E195">
-        <v>1950</v>
+        <v>-733.95</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196">
-        <v>2151</v>
+        <v>2184</v>
       </c>
       <c r="B196" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C196" s="2">
-        <v>45355</v>
+        <v>45323</v>
       </c>
       <c r="D196" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E196">
-        <v>-730.2</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197">
-        <v>2152</v>
+        <v>2185</v>
       </c>
       <c r="B197" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C197" s="2">
-        <v>45352</v>
+        <v>45322</v>
       </c>
       <c r="D197" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E197">
-        <v>-75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198">
-        <v>2153</v>
+        <v>2186</v>
       </c>
       <c r="B198" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C198" s="2">
-        <v>45335</v>
+        <v>45293</v>
       </c>
       <c r="D198" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E198">
-        <v>1950</v>
+        <v>-733.95</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199">
-        <v>2154</v>
+        <v>2187</v>
       </c>
       <c r="B199" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C199" s="2">
-        <v>45324</v>
+        <v>45293</v>
       </c>
       <c r="D199" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E199">
-        <v>-730.2</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200">
-        <v>2155</v>
+        <v>2193</v>
       </c>
       <c r="B200" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C200" s="2">
-        <v>45323</v>
+        <v>45413</v>
       </c>
       <c r="D200" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E200">
-        <v>-75</v>
+        <v>-726.97</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201">
-        <v>2156</v>
+        <v>2194</v>
       </c>
       <c r="B201" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C201" s="2">
-        <v>45302</v>
+        <v>45413</v>
       </c>
       <c r="D201" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E201">
-        <v>2259</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202">
-        <v>2157</v>
+        <v>2195</v>
       </c>
       <c r="B202" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C202" s="2">
-        <v>45293</v>
+        <v>45394</v>
       </c>
       <c r="D202" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E202">
-        <v>-730.2</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203">
-        <v>2158</v>
+        <v>2196</v>
       </c>
       <c r="B203" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C203" s="2">
-        <v>45293</v>
+        <v>45383</v>
       </c>
       <c r="D203" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E203">
-        <v>-75</v>
+        <v>-726.97</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204">
-        <v>2164</v>
+        <v>2197</v>
       </c>
       <c r="B204" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C204" s="2">
-        <v>45412</v>
+        <v>45383</v>
       </c>
       <c r="D204" t="s">
-        <v>188</v>
+        <v>230</v>
       </c>
       <c r="E204">
-        <v>0.02</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205">
-        <v>2165</v>
+        <v>2198</v>
       </c>
       <c r="B205" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C205" s="2">
-        <v>45391</v>
+        <v>45383</v>
       </c>
       <c r="D205" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E205">
-        <v>150</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206">
-        <v>2166</v>
+        <v>2199</v>
       </c>
       <c r="B206" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C206" s="2">
-        <v>45380</v>
+        <v>45369</v>
       </c>
       <c r="D206" t="s">
-        <v>188</v>
+        <v>232</v>
       </c>
       <c r="E206">
-        <v>0.02</v>
+        <v>-84.19</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207">
-        <v>2167</v>
+        <v>2200</v>
       </c>
       <c r="B207" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C207" s="2">
-        <v>45362</v>
+        <v>45352</v>
       </c>
       <c r="D207" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E207">
-        <v>150</v>
+        <v>-726.97</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208">
-        <v>2168</v>
+        <v>2201</v>
       </c>
       <c r="B208" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C208" s="2">
-        <v>45351</v>
+        <v>45352</v>
       </c>
       <c r="D208" t="s">
-        <v>188</v>
+        <v>234</v>
       </c>
       <c r="E208">
-        <v>0.02</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="209" spans="1:5">
       <c r="A209">
-        <v>2169</v>
+        <v>2202</v>
       </c>
       <c r="B209" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C209" s="2">
-        <v>45331</v>
+        <v>45335</v>
       </c>
       <c r="D209" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E209">
-        <v>150</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="210" spans="1:5">
       <c r="A210">
-        <v>2170</v>
+        <v>2203</v>
       </c>
       <c r="B210" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C210" s="2">
-        <v>45322</v>
+        <v>45323</v>
       </c>
       <c r="D210" t="s">
-        <v>188</v>
+        <v>236</v>
       </c>
       <c r="E210">
-        <v>0.05</v>
+        <v>-726.97</v>
       </c>
     </row>
     <row r="211" spans="1:5">
       <c r="A211">
-        <v>2171</v>
+        <v>2204</v>
       </c>
       <c r="B211" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C211" s="2">
-        <v>45300</v>
+        <v>45323</v>
       </c>
       <c r="D211" t="s">
         <v>237</v>
       </c>
       <c r="E211">
-        <v>150</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="212" spans="1:5">
       <c r="A212">
-        <v>2175</v>
+        <v>2205</v>
       </c>
       <c r="B212" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C212" s="2">
-        <v>45413</v>
+        <v>45302</v>
       </c>
       <c r="D212" t="s">
         <v>238</v>
       </c>
       <c r="E212">
-        <v>-733.95</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="213" spans="1:5">
       <c r="A213">
-        <v>2176</v>
+        <v>2206</v>
       </c>
       <c r="B213" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C213" s="2">
-        <v>45413</v>
+        <v>45296</v>
       </c>
       <c r="D213" t="s">
         <v>239</v>
       </c>
       <c r="E213">
-        <v>-75</v>
+        <v>-218</v>
       </c>
     </row>
     <row r="214" spans="1:5">
       <c r="A214">
-        <v>2177</v>
+        <v>2207</v>
       </c>
       <c r="B214" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C214" s="2">
-        <v>45383</v>
+        <v>45293</v>
       </c>
       <c r="D214" t="s">
         <v>240</v>
       </c>
       <c r="E214">
-        <v>-733.95</v>
+        <v>-726.97</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215">
-        <v>2178</v>
+        <v>2208</v>
       </c>
       <c r="B215" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C215" s="2">
-        <v>45383</v>
+        <v>45293</v>
       </c>
       <c r="D215" t="s">
         <v>241</v>
@@ -5016,1013 +4941,1013 @@
     </row>
     <row r="216" spans="1:5">
       <c r="A216">
-        <v>2179</v>
+        <v>2214</v>
       </c>
       <c r="B216" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C216" s="2">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="D216" t="s">
         <v>242</v>
       </c>
       <c r="E216">
-        <v>2125</v>
+        <v>-947.72</v>
       </c>
     </row>
     <row r="217" spans="1:5">
       <c r="A217">
-        <v>2180</v>
+        <v>2215</v>
       </c>
       <c r="B217" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C217" s="2">
-        <v>45352</v>
+        <v>45412</v>
       </c>
       <c r="D217" t="s">
-        <v>243</v>
+        <v>163</v>
       </c>
       <c r="E217">
-        <v>-733.95</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="218" spans="1:5">
       <c r="A218">
-        <v>2181</v>
+        <v>2216</v>
       </c>
       <c r="B218" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C218" s="2">
-        <v>45352</v>
+        <v>45394</v>
       </c>
       <c r="D218" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E218">
-        <v>-75</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="219" spans="1:5">
       <c r="A219">
-        <v>2182</v>
+        <v>2217</v>
       </c>
       <c r="B219" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C219" s="2">
-        <v>45335</v>
+        <v>45383</v>
       </c>
       <c r="D219" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E219">
-        <v>155</v>
+        <v>-947.72</v>
       </c>
     </row>
     <row r="220" spans="1:5">
       <c r="A220">
-        <v>2183</v>
+        <v>2218</v>
       </c>
       <c r="B220" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C220" s="2">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="D220" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E220">
-        <v>-733.95</v>
+        <v>3150</v>
       </c>
     </row>
     <row r="221" spans="1:5">
       <c r="A221">
-        <v>2184</v>
+        <v>2219</v>
       </c>
       <c r="B221" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C221" s="2">
-        <v>45323</v>
+        <v>45380</v>
       </c>
       <c r="D221" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E221">
-        <v>-75</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222">
-        <v>2185</v>
+        <v>2220</v>
       </c>
       <c r="B222" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C222" s="2">
-        <v>45322</v>
+        <v>45352</v>
       </c>
       <c r="D222" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E222">
-        <v>84</v>
+        <v>-947.72</v>
       </c>
     </row>
     <row r="223" spans="1:5">
       <c r="A223">
-        <v>2186</v>
+        <v>2221</v>
       </c>
       <c r="B223" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C223" s="2">
-        <v>45293</v>
+        <v>45351</v>
       </c>
       <c r="D223" t="s">
-        <v>249</v>
+        <v>163</v>
       </c>
       <c r="E223">
-        <v>-733.95</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="224" spans="1:5">
       <c r="A224">
-        <v>2187</v>
+        <v>2222</v>
       </c>
       <c r="B224" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C224" s="2">
-        <v>45293</v>
+        <v>45342</v>
       </c>
       <c r="D224" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E224">
-        <v>-75</v>
+        <v>-3.12</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225">
-        <v>2193</v>
+        <v>2223</v>
       </c>
       <c r="B225" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C225" s="2">
-        <v>45413</v>
+        <v>45335</v>
       </c>
       <c r="D225" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E225">
-        <v>-726.97</v>
+        <v>624</v>
       </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226">
-        <v>2194</v>
+        <v>2224</v>
       </c>
       <c r="B226" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C226" s="2">
-        <v>45413</v>
+        <v>45328</v>
       </c>
       <c r="D226" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E226">
-        <v>-75</v>
+        <v>-2399.15</v>
       </c>
     </row>
     <row r="227" spans="1:5">
       <c r="A227">
-        <v>2195</v>
+        <v>2225</v>
       </c>
       <c r="B227" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C227" s="2">
-        <v>45394</v>
+        <v>45323</v>
       </c>
       <c r="D227" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E227">
-        <v>1716</v>
+        <v>-947.72</v>
       </c>
     </row>
     <row r="228" spans="1:5">
       <c r="A228">
-        <v>2196</v>
+        <v>2226</v>
       </c>
       <c r="B228" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C228" s="2">
-        <v>45383</v>
+        <v>45322</v>
       </c>
       <c r="D228" t="s">
-        <v>254</v>
+        <v>163</v>
       </c>
       <c r="E228">
-        <v>-726.97</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="229" spans="1:5">
       <c r="A229">
-        <v>2197</v>
+        <v>2227</v>
       </c>
       <c r="B229" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C229" s="2">
-        <v>45383</v>
+        <v>45307</v>
       </c>
       <c r="D229" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E229">
-        <v>-75</v>
+        <v>-81.34999999999999</v>
       </c>
     </row>
     <row r="230" spans="1:5">
       <c r="A230">
-        <v>2198</v>
+        <v>2228</v>
       </c>
       <c r="B230" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C230" s="2">
-        <v>45383</v>
+        <v>45302</v>
       </c>
       <c r="D230" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E230">
-        <v>1925</v>
+        <v>3150</v>
       </c>
     </row>
     <row r="231" spans="1:5">
       <c r="A231">
-        <v>2199</v>
+        <v>2229</v>
       </c>
       <c r="B231" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C231" s="2">
-        <v>45369</v>
+        <v>45293</v>
       </c>
       <c r="D231" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E231">
-        <v>-84.19</v>
+        <v>-947.72</v>
       </c>
     </row>
     <row r="232" spans="1:5">
       <c r="A232">
-        <v>2200</v>
+        <v>2241</v>
       </c>
       <c r="B232" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C232" s="2">
-        <v>45352</v>
+        <v>45412</v>
       </c>
       <c r="D232" t="s">
-        <v>258</v>
+        <v>163</v>
       </c>
       <c r="E232">
-        <v>-726.97</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="233" spans="1:5">
       <c r="A233">
-        <v>2201</v>
+        <v>2242</v>
       </c>
       <c r="B233" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C233" s="2">
-        <v>45352</v>
+        <v>45380</v>
       </c>
       <c r="D233" t="s">
-        <v>259</v>
+        <v>163</v>
       </c>
       <c r="E233">
-        <v>-75</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="234" spans="1:5">
       <c r="A234">
-        <v>2202</v>
+        <v>2243</v>
       </c>
       <c r="B234" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C234" s="2">
-        <v>45335</v>
+        <v>45351</v>
       </c>
       <c r="D234" t="s">
-        <v>260</v>
+        <v>163</v>
       </c>
       <c r="E234">
-        <v>1925</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="235" spans="1:5">
       <c r="A235">
-        <v>2203</v>
+        <v>2244</v>
       </c>
       <c r="B235" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C235" s="2">
-        <v>45323</v>
+        <v>45322</v>
       </c>
       <c r="D235" t="s">
-        <v>261</v>
+        <v>163</v>
       </c>
       <c r="E235">
-        <v>-726.97</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="236" spans="1:5">
       <c r="A236">
-        <v>2204</v>
+        <v>2247</v>
       </c>
       <c r="B236" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C236" s="2">
-        <v>45323</v>
+        <v>45414</v>
       </c>
       <c r="D236" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="E236">
-        <v>-75</v>
+        <v>-5000</v>
       </c>
     </row>
     <row r="237" spans="1:5">
       <c r="A237">
-        <v>2205</v>
+        <v>2248</v>
       </c>
       <c r="B237" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C237" s="2">
-        <v>45302</v>
+        <v>45413</v>
       </c>
       <c r="D237" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="E237">
-        <v>2234</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="238" spans="1:5">
       <c r="A238">
-        <v>2206</v>
+        <v>2249</v>
       </c>
       <c r="B238" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C238" s="2">
-        <v>45296</v>
+        <v>45413</v>
       </c>
       <c r="D238" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="E238">
-        <v>-218</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="239" spans="1:5">
       <c r="A239">
-        <v>2207</v>
+        <v>2250</v>
       </c>
       <c r="B239" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C239" s="2">
-        <v>45293</v>
+        <v>45412</v>
       </c>
       <c r="D239" t="s">
-        <v>265</v>
+        <v>163</v>
       </c>
       <c r="E239">
-        <v>-726.97</v>
+        <v>9.77</v>
       </c>
     </row>
     <row r="240" spans="1:5">
       <c r="A240">
-        <v>2208</v>
+        <v>2251</v>
       </c>
       <c r="B240" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C240" s="2">
-        <v>45293</v>
+        <v>45380</v>
       </c>
       <c r="D240" t="s">
-        <v>266</v>
+        <v>163</v>
       </c>
       <c r="E240">
-        <v>-75</v>
+        <v>10.11</v>
       </c>
     </row>
     <row r="241" spans="1:5">
       <c r="A241">
-        <v>2214</v>
+        <v>2252</v>
       </c>
       <c r="B241" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C241" s="2">
-        <v>45413</v>
+        <v>45366</v>
       </c>
       <c r="D241" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="E241">
-        <v>-947.72</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="242" spans="1:5">
       <c r="A242">
-        <v>2215</v>
+        <v>2253</v>
       </c>
       <c r="B242" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C242" s="2">
-        <v>45412</v>
+        <v>45366</v>
       </c>
       <c r="D242" t="s">
-        <v>188</v>
+        <v>259</v>
       </c>
       <c r="E242">
-        <v>0.03</v>
+        <v>-4600</v>
       </c>
     </row>
     <row r="243" spans="1:5">
       <c r="A243">
-        <v>2216</v>
+        <v>2254</v>
       </c>
       <c r="B243" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C243" s="2">
-        <v>45394</v>
+        <v>45366</v>
       </c>
       <c r="D243" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="E243">
-        <v>2750</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="244" spans="1:5">
       <c r="A244">
-        <v>2217</v>
+        <v>2255</v>
       </c>
       <c r="B244" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C244" s="2">
-        <v>45383</v>
+        <v>45351</v>
       </c>
       <c r="D244" t="s">
-        <v>269</v>
+        <v>163</v>
       </c>
       <c r="E244">
-        <v>-947.72</v>
+        <v>526.53</v>
       </c>
     </row>
     <row r="245" spans="1:5">
       <c r="A245">
-        <v>2218</v>
+        <v>2256</v>
       </c>
       <c r="B245" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C245" s="2">
-        <v>45383</v>
+        <v>45327</v>
       </c>
       <c r="D245" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="E245">
-        <v>3150</v>
+        <v>-11000</v>
       </c>
     </row>
     <row r="246" spans="1:5">
       <c r="A246">
-        <v>2219</v>
+        <v>2257</v>
       </c>
       <c r="B246" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C246" s="2">
-        <v>45380</v>
+        <v>45322</v>
       </c>
       <c r="D246" t="s">
-        <v>271</v>
+        <v>163</v>
       </c>
       <c r="E246">
-        <v>-5</v>
+        <v>1052.56</v>
       </c>
     </row>
     <row r="247" spans="1:5">
       <c r="A247">
-        <v>2220</v>
+        <v>2258</v>
       </c>
       <c r="B247" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C247" s="2">
-        <v>45352</v>
+        <v>45316</v>
       </c>
       <c r="D247" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="E247">
-        <v>-947.72</v>
+        <v>-10000</v>
       </c>
     </row>
     <row r="248" spans="1:5">
       <c r="A248">
-        <v>2221</v>
+        <v>2259</v>
       </c>
       <c r="B248" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C248" s="2">
-        <v>45351</v>
+        <v>45316</v>
       </c>
       <c r="D248" t="s">
-        <v>188</v>
+        <v>263</v>
       </c>
       <c r="E248">
-        <v>0.01</v>
+        <v>-10000</v>
       </c>
     </row>
     <row r="249" spans="1:5">
       <c r="A249">
-        <v>2222</v>
+        <v>2260</v>
       </c>
       <c r="B249" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C249" s="2">
-        <v>45342</v>
+        <v>45299</v>
       </c>
       <c r="D249" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="E249">
-        <v>-3.12</v>
+        <v>-12000</v>
       </c>
     </row>
     <row r="250" spans="1:5">
       <c r="A250">
-        <v>2223</v>
+        <v>2261</v>
       </c>
       <c r="B250" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C250" s="2">
-        <v>45335</v>
+        <v>45293</v>
       </c>
       <c r="D250" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="E250">
-        <v>624</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="251" spans="1:5">
       <c r="A251">
-        <v>2224</v>
+        <v>2279</v>
       </c>
       <c r="B251" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C251" s="2">
-        <v>45328</v>
+        <v>45414</v>
       </c>
       <c r="D251" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="E251">
-        <v>-2399.15</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="252" spans="1:5">
       <c r="A252">
-        <v>2225</v>
+        <v>2280</v>
       </c>
       <c r="B252" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C252" s="2">
-        <v>45323</v>
+        <v>45414</v>
       </c>
       <c r="D252" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="E252">
-        <v>-947.72</v>
+        <v>-35</v>
       </c>
     </row>
     <row r="253" spans="1:5">
       <c r="A253">
-        <v>2226</v>
+        <v>2281</v>
       </c>
       <c r="B253" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C253" s="2">
-        <v>45322</v>
+        <v>45413</v>
       </c>
       <c r="D253" t="s">
-        <v>188</v>
+        <v>268</v>
       </c>
       <c r="E253">
-        <v>0.04</v>
+        <v>-711.48</v>
       </c>
     </row>
     <row r="254" spans="1:5">
       <c r="A254">
-        <v>2227</v>
+        <v>2282</v>
       </c>
       <c r="B254" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C254" s="2">
-        <v>45307</v>
+        <v>45413</v>
       </c>
       <c r="D254" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="E254">
-        <v>-81.34999999999999</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="255" spans="1:5">
       <c r="A255">
-        <v>2228</v>
+        <v>2283</v>
       </c>
       <c r="B255" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C255" s="2">
-        <v>45302</v>
+        <v>45383</v>
       </c>
       <c r="D255" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="E255">
-        <v>3150</v>
+        <v>-711.48</v>
       </c>
     </row>
     <row r="256" spans="1:5">
       <c r="A256">
-        <v>2229</v>
+        <v>2284</v>
       </c>
       <c r="B256" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C256" s="2">
-        <v>45293</v>
+        <v>45383</v>
       </c>
       <c r="D256" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="E256">
-        <v>-947.72</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="257" spans="1:5">
       <c r="A257">
-        <v>2241</v>
+        <v>2285</v>
       </c>
       <c r="B257" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C257" s="2">
-        <v>45412</v>
+        <v>45352</v>
       </c>
       <c r="D257" t="s">
-        <v>188</v>
+        <v>272</v>
       </c>
       <c r="E257">
-        <v>0.23</v>
+        <v>-711.48</v>
       </c>
     </row>
     <row r="258" spans="1:5">
       <c r="A258">
-        <v>2242</v>
+        <v>2286</v>
       </c>
       <c r="B258" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C258" s="2">
-        <v>45380</v>
+        <v>45352</v>
       </c>
       <c r="D258" t="s">
-        <v>188</v>
+        <v>273</v>
       </c>
       <c r="E258">
-        <v>0.24</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="259" spans="1:5">
       <c r="A259">
-        <v>2243</v>
+        <v>2287</v>
       </c>
       <c r="B259" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C259" s="2">
-        <v>45351</v>
+        <v>45323</v>
       </c>
       <c r="D259" t="s">
-        <v>188</v>
+        <v>274</v>
       </c>
       <c r="E259">
-        <v>0.22</v>
+        <v>-711.48</v>
       </c>
     </row>
     <row r="260" spans="1:5">
       <c r="A260">
-        <v>2244</v>
+        <v>2288</v>
       </c>
       <c r="B260" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C260" s="2">
-        <v>45322</v>
+        <v>45323</v>
       </c>
       <c r="D260" t="s">
-        <v>188</v>
+        <v>275</v>
       </c>
       <c r="E260">
-        <v>0.78</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="261" spans="1:5">
       <c r="A261">
-        <v>2247</v>
+        <v>2289</v>
       </c>
       <c r="B261" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C261" s="2">
-        <v>45414</v>
+        <v>45322</v>
       </c>
       <c r="D261" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E261">
-        <v>-5000</v>
+        <v>1692.5</v>
       </c>
     </row>
     <row r="262" spans="1:5">
       <c r="A262">
-        <v>2248</v>
+        <v>2290</v>
       </c>
       <c r="B262" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C262" s="2">
-        <v>45413</v>
+        <v>45293</v>
       </c>
       <c r="D262" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E262">
-        <v>-1000</v>
+        <v>-711.48</v>
       </c>
     </row>
     <row r="263" spans="1:5">
       <c r="A263">
-        <v>2249</v>
+        <v>2291</v>
       </c>
       <c r="B263" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C263" s="2">
-        <v>45413</v>
+        <v>45293</v>
       </c>
       <c r="D263" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E263">
-        <v>-1000</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="264" spans="1:5">
       <c r="A264">
-        <v>2250</v>
+        <v>2296</v>
       </c>
       <c r="B264" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C264" s="2">
-        <v>45412</v>
+        <v>45414</v>
       </c>
       <c r="D264" t="s">
-        <v>188</v>
+        <v>279</v>
       </c>
       <c r="E264">
-        <v>9.77</v>
+        <v>-694.01</v>
       </c>
     </row>
     <row r="265" spans="1:5">
       <c r="A265">
-        <v>2251</v>
+        <v>2297</v>
       </c>
       <c r="B265" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C265" s="2">
-        <v>45380</v>
+        <v>45413</v>
       </c>
       <c r="D265" t="s">
-        <v>188</v>
+        <v>280</v>
       </c>
       <c r="E265">
-        <v>10.11</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="266" spans="1:5">
       <c r="A266">
-        <v>2252</v>
+        <v>2298</v>
       </c>
       <c r="B266" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C266" s="2">
-        <v>45366</v>
+        <v>45384</v>
       </c>
       <c r="D266" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E266">
-        <v>-2000</v>
+        <v>-694.01</v>
       </c>
     </row>
     <row r="267" spans="1:5">
       <c r="A267">
-        <v>2253</v>
+        <v>2299</v>
       </c>
       <c r="B267" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C267" s="2">
-        <v>45366</v>
+        <v>45383</v>
       </c>
       <c r="D267" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E267">
-        <v>-4600</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="268" spans="1:5">
       <c r="A268">
-        <v>2254</v>
+        <v>2300</v>
       </c>
       <c r="B268" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C268" s="2">
-        <v>45366</v>
+        <v>45355</v>
       </c>
       <c r="D268" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E268">
-        <v>4600</v>
+        <v>-694.01</v>
       </c>
     </row>
     <row r="269" spans="1:5">
       <c r="A269">
-        <v>2255</v>
+        <v>2301</v>
       </c>
       <c r="B269" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C269" s="2">
-        <v>45351</v>
+        <v>45352</v>
       </c>
       <c r="D269" t="s">
-        <v>188</v>
+        <v>284</v>
       </c>
       <c r="E269">
-        <v>526.53</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="270" spans="1:5">
       <c r="A270">
-        <v>2256</v>
+        <v>2302</v>
       </c>
       <c r="B270" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C270" s="2">
         <v>45327</v>
       </c>
       <c r="D270" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E270">
-        <v>-11000</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="271" spans="1:5">
       <c r="A271">
-        <v>2257</v>
+        <v>2303</v>
       </c>
       <c r="B271" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C271" s="2">
-        <v>45322</v>
+        <v>45324</v>
       </c>
       <c r="D271" t="s">
-        <v>188</v>
+        <v>286</v>
       </c>
       <c r="E271">
-        <v>1052.56</v>
+        <v>82.92</v>
       </c>
     </row>
     <row r="272" spans="1:5">
       <c r="A272">
-        <v>2258</v>
+        <v>2304</v>
       </c>
       <c r="B272" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C272" s="2">
-        <v>45316</v>
+        <v>45324</v>
       </c>
       <c r="D272" t="s">
         <v>287</v>
       </c>
       <c r="E272">
-        <v>-10000</v>
+        <v>-694.01</v>
       </c>
     </row>
     <row r="273" spans="1:5">
       <c r="A273">
-        <v>2259</v>
+        <v>2305</v>
       </c>
       <c r="B273" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C273" s="2">
-        <v>45316</v>
+        <v>45323</v>
       </c>
       <c r="D273" t="s">
         <v>288</v>
       </c>
       <c r="E273">
-        <v>-10000</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="274" spans="1:5">
       <c r="A274">
-        <v>2260</v>
+        <v>2306</v>
       </c>
       <c r="B274" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C274" s="2">
-        <v>45299</v>
+        <v>45293</v>
       </c>
       <c r="D274" t="s">
         <v>289</v>
       </c>
       <c r="E274">
-        <v>-12000</v>
+        <v>-694.01</v>
       </c>
     </row>
     <row r="275" spans="1:5">
       <c r="A275">
-        <v>2261</v>
+        <v>2307</v>
       </c>
       <c r="B275" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C275" s="2">
         <v>45293</v>
@@ -6031,431 +5956,6 @@
         <v>290</v>
       </c>
       <c r="E275">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5">
-      <c r="A276">
-        <v>2279</v>
-      </c>
-      <c r="B276" t="s">
-        <v>35</v>
-      </c>
-      <c r="C276" s="2">
-        <v>45414</v>
-      </c>
-      <c r="D276" t="s">
-        <v>291</v>
-      </c>
-      <c r="E276">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5">
-      <c r="A277">
-        <v>2280</v>
-      </c>
-      <c r="B277" t="s">
-        <v>35</v>
-      </c>
-      <c r="C277" s="2">
-        <v>45414</v>
-      </c>
-      <c r="D277" t="s">
-        <v>292</v>
-      </c>
-      <c r="E277">
-        <v>-35</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5">
-      <c r="A278">
-        <v>2281</v>
-      </c>
-      <c r="B278" t="s">
-        <v>35</v>
-      </c>
-      <c r="C278" s="2">
-        <v>45413</v>
-      </c>
-      <c r="D278" t="s">
-        <v>293</v>
-      </c>
-      <c r="E278">
-        <v>-711.48</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5">
-      <c r="A279">
-        <v>2282</v>
-      </c>
-      <c r="B279" t="s">
-        <v>35</v>
-      </c>
-      <c r="C279" s="2">
-        <v>45413</v>
-      </c>
-      <c r="D279" t="s">
-        <v>294</v>
-      </c>
-      <c r="E279">
-        <v>-75</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5">
-      <c r="A280">
-        <v>2283</v>
-      </c>
-      <c r="B280" t="s">
-        <v>35</v>
-      </c>
-      <c r="C280" s="2">
-        <v>45383</v>
-      </c>
-      <c r="D280" t="s">
-        <v>295</v>
-      </c>
-      <c r="E280">
-        <v>-711.48</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5">
-      <c r="A281">
-        <v>2284</v>
-      </c>
-      <c r="B281" t="s">
-        <v>35</v>
-      </c>
-      <c r="C281" s="2">
-        <v>45383</v>
-      </c>
-      <c r="D281" t="s">
-        <v>296</v>
-      </c>
-      <c r="E281">
-        <v>-75</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5">
-      <c r="A282">
-        <v>2285</v>
-      </c>
-      <c r="B282" t="s">
-        <v>35</v>
-      </c>
-      <c r="C282" s="2">
-        <v>45352</v>
-      </c>
-      <c r="D282" t="s">
-        <v>297</v>
-      </c>
-      <c r="E282">
-        <v>-711.48</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5">
-      <c r="A283">
-        <v>2286</v>
-      </c>
-      <c r="B283" t="s">
-        <v>35</v>
-      </c>
-      <c r="C283" s="2">
-        <v>45352</v>
-      </c>
-      <c r="D283" t="s">
-        <v>298</v>
-      </c>
-      <c r="E283">
-        <v>-75</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5">
-      <c r="A284">
-        <v>2287</v>
-      </c>
-      <c r="B284" t="s">
-        <v>35</v>
-      </c>
-      <c r="C284" s="2">
-        <v>45323</v>
-      </c>
-      <c r="D284" t="s">
-        <v>299</v>
-      </c>
-      <c r="E284">
-        <v>-711.48</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5">
-      <c r="A285">
-        <v>2288</v>
-      </c>
-      <c r="B285" t="s">
-        <v>35</v>
-      </c>
-      <c r="C285" s="2">
-        <v>45323</v>
-      </c>
-      <c r="D285" t="s">
-        <v>300</v>
-      </c>
-      <c r="E285">
-        <v>-75</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5">
-      <c r="A286">
-        <v>2289</v>
-      </c>
-      <c r="B286" t="s">
-        <v>35</v>
-      </c>
-      <c r="C286" s="2">
-        <v>45322</v>
-      </c>
-      <c r="D286" t="s">
-        <v>301</v>
-      </c>
-      <c r="E286">
-        <v>1692.5</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5">
-      <c r="A287">
-        <v>2290</v>
-      </c>
-      <c r="B287" t="s">
-        <v>35</v>
-      </c>
-      <c r="C287" s="2">
-        <v>45293</v>
-      </c>
-      <c r="D287" t="s">
-        <v>302</v>
-      </c>
-      <c r="E287">
-        <v>-711.48</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5">
-      <c r="A288">
-        <v>2291</v>
-      </c>
-      <c r="B288" t="s">
-        <v>35</v>
-      </c>
-      <c r="C288" s="2">
-        <v>45293</v>
-      </c>
-      <c r="D288" t="s">
-        <v>303</v>
-      </c>
-      <c r="E288">
-        <v>-75</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5">
-      <c r="A289">
-        <v>2296</v>
-      </c>
-      <c r="B289" t="s">
-        <v>36</v>
-      </c>
-      <c r="C289" s="2">
-        <v>45414</v>
-      </c>
-      <c r="D289" t="s">
-        <v>304</v>
-      </c>
-      <c r="E289">
-        <v>-694.01</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5">
-      <c r="A290">
-        <v>2297</v>
-      </c>
-      <c r="B290" t="s">
-        <v>36</v>
-      </c>
-      <c r="C290" s="2">
-        <v>45413</v>
-      </c>
-      <c r="D290" t="s">
-        <v>305</v>
-      </c>
-      <c r="E290">
-        <v>-75</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5">
-      <c r="A291">
-        <v>2298</v>
-      </c>
-      <c r="B291" t="s">
-        <v>36</v>
-      </c>
-      <c r="C291" s="2">
-        <v>45384</v>
-      </c>
-      <c r="D291" t="s">
-        <v>306</v>
-      </c>
-      <c r="E291">
-        <v>-694.01</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5">
-      <c r="A292">
-        <v>2299</v>
-      </c>
-      <c r="B292" t="s">
-        <v>36</v>
-      </c>
-      <c r="C292" s="2">
-        <v>45383</v>
-      </c>
-      <c r="D292" t="s">
-        <v>307</v>
-      </c>
-      <c r="E292">
-        <v>-75</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5">
-      <c r="A293">
-        <v>2300</v>
-      </c>
-      <c r="B293" t="s">
-        <v>36</v>
-      </c>
-      <c r="C293" s="2">
-        <v>45355</v>
-      </c>
-      <c r="D293" t="s">
-        <v>308</v>
-      </c>
-      <c r="E293">
-        <v>-694.01</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5">
-      <c r="A294">
-        <v>2301</v>
-      </c>
-      <c r="B294" t="s">
-        <v>36</v>
-      </c>
-      <c r="C294" s="2">
-        <v>45352</v>
-      </c>
-      <c r="D294" t="s">
-        <v>309</v>
-      </c>
-      <c r="E294">
-        <v>-75</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5">
-      <c r="A295">
-        <v>2302</v>
-      </c>
-      <c r="B295" t="s">
-        <v>36</v>
-      </c>
-      <c r="C295" s="2">
-        <v>45327</v>
-      </c>
-      <c r="D295" t="s">
-        <v>310</v>
-      </c>
-      <c r="E295">
-        <v>11000</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5">
-      <c r="A296">
-        <v>2303</v>
-      </c>
-      <c r="B296" t="s">
-        <v>36</v>
-      </c>
-      <c r="C296" s="2">
-        <v>45324</v>
-      </c>
-      <c r="D296" t="s">
-        <v>311</v>
-      </c>
-      <c r="E296">
-        <v>82.92</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5">
-      <c r="A297">
-        <v>2304</v>
-      </c>
-      <c r="B297" t="s">
-        <v>36</v>
-      </c>
-      <c r="C297" s="2">
-        <v>45324</v>
-      </c>
-      <c r="D297" t="s">
-        <v>312</v>
-      </c>
-      <c r="E297">
-        <v>-694.01</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5">
-      <c r="A298">
-        <v>2305</v>
-      </c>
-      <c r="B298" t="s">
-        <v>36</v>
-      </c>
-      <c r="C298" s="2">
-        <v>45323</v>
-      </c>
-      <c r="D298" t="s">
-        <v>313</v>
-      </c>
-      <c r="E298">
-        <v>-75</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5">
-      <c r="A299">
-        <v>2306</v>
-      </c>
-      <c r="B299" t="s">
-        <v>36</v>
-      </c>
-      <c r="C299" s="2">
-        <v>45293</v>
-      </c>
-      <c r="D299" t="s">
-        <v>314</v>
-      </c>
-      <c r="E299">
-        <v>-694.01</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5">
-      <c r="A300">
-        <v>2307</v>
-      </c>
-      <c r="B300" t="s">
-        <v>36</v>
-      </c>
-      <c r="C300" s="2">
-        <v>45293</v>
-      </c>
-      <c r="D300" t="s">
-        <v>315</v>
-      </c>
-      <c r="E300">
         <v>-75</v>
       </c>
     </row>
